--- a/Assets/Scripts/Skill/SynergyDB/SynergyInfo.xlsx
+++ b/Assets/Scripts/Skill/SynergyDB/SynergyInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunsu Park\UnityProject\Dragon_and_Test\Assets\Scripts\Skill\SynergyDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\Dragon_and_Test\Assets\Scripts\Skill\SynergyDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55253D58-E110-43BC-9801-1ABF8CBB9F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4007613C-5A48-4901-BCEE-E106B9F7B46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="0" windowWidth="21600" windowHeight="15600" xr2:uid="{6C0A9B6D-19F7-47D3-85F7-FD4FEBD32434}"/>
+    <workbookView xWindow="960" yWindow="624" windowWidth="14160" windowHeight="8940" xr2:uid="{6C0A9B6D-19F7-47D3-85F7-FD4FEBD32434}"/>
   </bookViews>
   <sheets>
     <sheet name="synergyEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>synergyCode</t>
   </si>
@@ -53,212 +53,317 @@
     <t>38 광땡</t>
   </si>
   <si>
+    <t>GTT18</t>
+  </si>
+  <si>
+    <t>18 광땡</t>
+  </si>
+  <si>
+    <t>GTT13</t>
+  </si>
+  <si>
+    <t>13 광땡</t>
+  </si>
+  <si>
+    <t>JTT</t>
+  </si>
+  <si>
+    <t>10 땡</t>
+  </si>
+  <si>
+    <t>TT9</t>
+  </si>
+  <si>
+    <t>9 땡</t>
+  </si>
+  <si>
+    <t>TT8</t>
+  </si>
+  <si>
+    <t>8 땡</t>
+  </si>
+  <si>
+    <t>TT7</t>
+  </si>
+  <si>
+    <t>7 땡</t>
+  </si>
+  <si>
+    <t>TT6</t>
+  </si>
+  <si>
+    <t>6 땡</t>
+  </si>
+  <si>
+    <t>TT5</t>
+  </si>
+  <si>
+    <t>5 땡</t>
+  </si>
+  <si>
+    <t>TT4</t>
+  </si>
+  <si>
+    <t>4 땡</t>
+  </si>
+  <si>
+    <t>TT3</t>
+  </si>
+  <si>
+    <t>3 땡</t>
+  </si>
+  <si>
+    <t>TT2</t>
+  </si>
+  <si>
+    <t>2 땡</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
+    <t>1 땡</t>
+  </si>
+  <si>
+    <t>AL12</t>
+  </si>
+  <si>
+    <t>알리</t>
+  </si>
+  <si>
+    <t>DS14</t>
+  </si>
+  <si>
+    <t>독사</t>
+  </si>
+  <si>
+    <t>GPP19</t>
+  </si>
+  <si>
+    <t>구삥</t>
+  </si>
+  <si>
+    <t>JPP110</t>
+  </si>
+  <si>
+    <t>장삥</t>
+  </si>
+  <si>
+    <t>JS410</t>
+  </si>
+  <si>
+    <t>장사</t>
+  </si>
+  <si>
+    <t>SR46</t>
+  </si>
+  <si>
+    <t>세륙</t>
+  </si>
+  <si>
+    <t>KK9</t>
+  </si>
+  <si>
+    <t>9 끗</t>
+  </si>
+  <si>
+    <t>KK8</t>
+  </si>
+  <si>
+    <t>8 끗</t>
+  </si>
+  <si>
+    <t>KK7</t>
+  </si>
+  <si>
+    <t>7 끗</t>
+  </si>
+  <si>
+    <t>KK6</t>
+  </si>
+  <si>
+    <t>6 끗</t>
+  </si>
+  <si>
+    <t>KK5</t>
+  </si>
+  <si>
+    <t>5 끗</t>
+  </si>
+  <si>
+    <t>KK4</t>
+  </si>
+  <si>
+    <t>4 끗</t>
+  </si>
+  <si>
+    <t>KK3</t>
+  </si>
+  <si>
+    <t>3 끗</t>
+  </si>
+  <si>
+    <t>KK2</t>
+  </si>
+  <si>
+    <t>2 끗</t>
+  </si>
+  <si>
+    <t>KK1</t>
+  </si>
+  <si>
+    <t>1 끗</t>
+  </si>
+  <si>
+    <t>KK0</t>
+  </si>
+  <si>
+    <t>0 끗</t>
+  </si>
+  <si>
+    <t>MTGR94</t>
+  </si>
+  <si>
+    <t>멍텅구리 구사</t>
+  </si>
+  <si>
+    <t>TTCatch73</t>
+  </si>
+  <si>
+    <t>땡잡이</t>
+  </si>
+  <si>
+    <t>AHES74</t>
+  </si>
+  <si>
+    <t>암행어사</t>
+  </si>
+  <si>
     <t>38%의 확률로 일반 몬스터를 한 방에 처치한다.</t>
-  </si>
-  <si>
-    <t>GTT18</t>
-  </si>
-  <si>
-    <t>18 광땡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18%의 확률로 일반 몬스터를 한 방에 처치한다. </t>
-  </si>
-  <si>
-    <t>GTT13</t>
-  </si>
-  <si>
-    <t>13 광땡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18%의 확률로 일반 몬스터를 한 방에 처치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13%의 확률로 일반 몬스터를 한 방에 처치한다.</t>
-  </si>
-  <si>
-    <t>JTT</t>
-  </si>
-  <si>
-    <t>10 땡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격속도와 이동속도를 30% 증가시킨다.</t>
-  </si>
-  <si>
-    <t>TT9</t>
-  </si>
-  <si>
-    <t>9 땡</t>
-  </si>
-  <si>
-    <t>TT8</t>
-  </si>
-  <si>
-    <t>8 땡</t>
-  </si>
-  <si>
-    <t>TT7</t>
-  </si>
-  <si>
-    <t>7 땡</t>
-  </si>
-  <si>
-    <t>TT6</t>
-  </si>
-  <si>
-    <t>6 땡</t>
-  </si>
-  <si>
-    <t>TT5</t>
-  </si>
-  <si>
-    <t>5 땡</t>
-  </si>
-  <si>
-    <t>TT4</t>
-  </si>
-  <si>
-    <t>4 땡</t>
-  </si>
-  <si>
-    <t>TT3</t>
-  </si>
-  <si>
-    <t>3 땡</t>
-  </si>
-  <si>
-    <t>TT2</t>
-  </si>
-  <si>
-    <t>2 땡</t>
-  </si>
-  <si>
-    <t>원형으로 넓게 펼쳐서 적을 넉백시키고 데미지를 준다</t>
-  </si>
-  <si>
-    <t>TT1</t>
-  </si>
-  <si>
-    <t>1 땡</t>
-  </si>
-  <si>
-    <t>AL12</t>
-  </si>
-  <si>
-    <t>알리</t>
-  </si>
-  <si>
-    <t>DS14</t>
-  </si>
-  <si>
-    <t>독사</t>
-  </si>
-  <si>
-    <t>GPP19</t>
-  </si>
-  <si>
-    <t>구삥</t>
-  </si>
-  <si>
-    <t>JPP110</t>
-  </si>
-  <si>
-    <t>장삥</t>
-  </si>
-  <si>
-    <t>JS410</t>
-  </si>
-  <si>
-    <t>장사</t>
-  </si>
-  <si>
-    <t>SR46</t>
-  </si>
-  <si>
-    <t>세륙</t>
-  </si>
-  <si>
-    <t>KK9</t>
-  </si>
-  <si>
-    <t>9 끗</t>
-  </si>
-  <si>
-    <t>KK8</t>
-  </si>
-  <si>
-    <t>8 끗</t>
-  </si>
-  <si>
-    <t>KK7</t>
-  </si>
-  <si>
-    <t>7 끗</t>
-  </si>
-  <si>
-    <t>KK6</t>
-  </si>
-  <si>
-    <t>6 끗</t>
-  </si>
-  <si>
-    <t>KK5</t>
-  </si>
-  <si>
-    <t>5 끗</t>
-  </si>
-  <si>
-    <t>KK4</t>
-  </si>
-  <si>
-    <t>4 끗</t>
-  </si>
-  <si>
-    <t>KK3</t>
-  </si>
-  <si>
-    <t>3 끗</t>
-  </si>
-  <si>
-    <t>KK2</t>
-  </si>
-  <si>
-    <t>2 끗</t>
-  </si>
-  <si>
-    <t>KK1</t>
-  </si>
-  <si>
-    <t>1 끗</t>
-  </si>
-  <si>
-    <t>KK0</t>
-  </si>
-  <si>
-    <t>0 끗</t>
-  </si>
-  <si>
-    <t>MTGR94</t>
-  </si>
-  <si>
-    <t>멍텅구리 구사</t>
-  </si>
-  <si>
-    <t>TTCatch73</t>
-  </si>
-  <si>
-    <t>땡잡이</t>
-  </si>
-  <si>
-    <t>AHES74</t>
-  </si>
-  <si>
-    <t>암행어사</t>
-  </si>
-  <si>
-    <t>원형으로 넓게 펼쳐서 적을 넉백시키고 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형으로 넓게 펼쳐서 적을 넉백시키고 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 27% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 24% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 21% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 18% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 15% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 12% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 9% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 6% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도와 이동속도를 3% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1% 확률로 2초간 무적이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4% 확률로 적에게 지속 데미지를 준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9% 확률로 몬스터의 시야를 가려 1초동안 제자리에서 한바퀴 돌게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10% 확률로 몬스터의 시야를 가려 1초동안 제자리에서 한바퀴 돌게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4% 확률로 플레이어 죽음을 한 번만 막아준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4% 확률로 6 데미지의 브레스가 나간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 9% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 8% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 7% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 6% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 5% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 4% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 3% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 2% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 1% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 0% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터가 기본 공격에 맞으면 13% 확률로 플레이어 반대 방향으로 향하게 한다. / 쿨타임 10초 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터에게 1.5배 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월, 3월, 8월 보스 몬스터에게 1.5배 데미지를 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,17 +751,17 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="22.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -675,348 +780,348 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
